--- a/MultisysBOM_Options.xlsx
+++ b/MultisysBOM_Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Desktop/track_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58E215-9B1E-194C-B9D4-1A6B0463F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3529C318-62D0-CF48-95B0-F0F7F367154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="11920" windowWidth="24520" windowHeight="7680" activeTab="1" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Type</t>
   </si>
@@ -199,6 +199,45 @@
   </si>
   <si>
     <t>RBKTRL-01</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>ST1-9500-4FT-**</t>
+  </si>
+  <si>
+    <t>ST8-9500-4FT-**</t>
+  </si>
+  <si>
+    <t>ST3-9500-4FT-**</t>
+  </si>
+  <si>
+    <t>ST6-9500-4FT-**</t>
+  </si>
+  <si>
+    <t>ST1-9500-8FT-**</t>
+  </si>
+  <si>
+    <t>ST8-9500-8FT-**</t>
+  </si>
+  <si>
+    <t>ST3-9500-8FT-**</t>
+  </si>
+  <si>
+    <t>ST6-9500-8FT-**</t>
+  </si>
+  <si>
+    <t>Imperial 4ft</t>
+  </si>
+  <si>
+    <t>Imperial 8ft</t>
   </si>
 </sst>
 </file>
@@ -576,23 +615,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DE009-48E9-DC46-84A9-3CD49F909332}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -600,19 +640,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -620,19 +663,22 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -640,219 +686,268 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E20" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -866,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C97794-5515-DF4A-A116-1E56A2431733}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/MultisysBOM_Options.xlsx
+++ b/MultisysBOM_Options.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Documents/GitHub/track_configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3529C318-62D0-CF48-95B0-F0F7F367154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E2AE9A-E225-C940-A9CB-97AF23E8E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Type</t>
   </si>
@@ -159,18 +159,6 @@
     <t>9518-S-K/*-E</t>
   </si>
   <si>
-    <t>TestBit01</t>
-  </si>
-  <si>
-    <t>TestBit02</t>
-  </si>
-  <si>
-    <t>TestBit03</t>
-  </si>
-  <si>
-    <t>TestBit04</t>
-  </si>
-  <si>
     <t>TestBit05</t>
   </si>
   <si>
@@ -189,18 +177,9 @@
     <t>Recessed Trimless</t>
   </si>
   <si>
-    <t>R Bracket</t>
-  </si>
-  <si>
-    <t>RBkt-01</t>
-  </si>
-  <si>
     <t>RTL Bracke</t>
   </si>
   <si>
-    <t>RBKTRL-01</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -238,13 +217,82 @@
   </si>
   <si>
     <t>Imperial 8ft</t>
+  </si>
+  <si>
+    <t>Black Suffix</t>
+  </si>
+  <si>
+    <t>White Suffix</t>
+  </si>
+  <si>
+    <t>ST6-9504-**</t>
+  </si>
+  <si>
+    <t>ST6-9504-F-**</t>
+  </si>
+  <si>
+    <t>End Feed only</t>
+  </si>
+  <si>
+    <t>9501-S-KL/*-E</t>
+  </si>
+  <si>
+    <t>ST-9500-323</t>
+  </si>
+  <si>
+    <t>ST6-9504-**|ST6-9504-**</t>
+  </si>
+  <si>
+    <t>9503-S-K/*-E|ST-9500-323</t>
+  </si>
+  <si>
+    <t>9503-S/*-M-E|ST-9500-323</t>
+  </si>
+  <si>
+    <t>ST-9511-KI-**</t>
+  </si>
+  <si>
+    <t>9518-S-K/*-E|ST6-9511-**</t>
+  </si>
+  <si>
+    <t>ST6-9511-**</t>
+  </si>
+  <si>
+    <t>Cover Strip (3m/9'8")</t>
+  </si>
+  <si>
+    <t>Cover Strip</t>
+  </si>
+  <si>
+    <t>ST-CS-9500-**-3000</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Recessed Mounting Clamp</t>
+  </si>
+  <si>
+    <t>S-9500/111</t>
+  </si>
+  <si>
+    <t>ST3-9500/315</t>
+  </si>
+  <si>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>Cable Suspension</t>
+  </si>
+  <si>
+    <t>ST6-9500-K1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,6 +302,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,8 +334,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DE009-48E9-DC46-84A9-3CD49F909332}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +688,7 @@
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -640,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -654,8 +710,14 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -663,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -678,7 +740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -686,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -701,53 +763,53 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -757,8 +819,11 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -768,8 +833,11 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -780,7 +848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -791,164 +859,219 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -959,54 +1082,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C97794-5515-DF4A-A116-1E56A2431733}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/MultisysBOM_Options.xlsx
+++ b/MultisysBOM_Options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Documents/GitHub/track_configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E2AE9A-E225-C940-A9CB-97AF23E8E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD7E37-C2F5-BC4D-8BE0-73CBB01ACA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Join</t>
   </si>
   <si>
-    <t>Corner Join</t>
-  </si>
-  <si>
     <t>Butt Joint - No Connection</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>ST6-9500-K1.5</t>
+  </si>
+  <si>
+    <t>Corner</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,117 +696,117 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -817,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -856,18 +856,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -880,198 +880,198 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1092,30 +1092,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="1">
         <v>0.4</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1">
         <v>0.5</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>0.4</v>

--- a/MultisysBOM_Options.xlsx
+++ b/MultisysBOM_Options.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Documents/GitHub/track_configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD7E37-C2F5-BC4D-8BE0-73CBB01ACA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D2E26-4BC2-A940-AC86-98379CC11671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MountingHardware" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>Type</t>
   </si>
@@ -286,6 +287,15 @@
   </si>
   <si>
     <t>Corner</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>Isolation</t>
   </si>
 </sst>
 </file>
@@ -671,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DE009-48E9-DC46-84A9-3CD49F909332}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,7 +698,7 @@
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -716,8 +726,11 @@
       <c r="I1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -740,7 +753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -763,7 +776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -786,7 +799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -809,7 +822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -823,7 +836,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -837,7 +850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -848,7 +861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -859,7 +872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -870,7 +883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -878,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -888,8 +901,11 @@
       <c r="G12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -902,8 +918,11 @@
       <c r="G13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -923,7 +942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -942,8 +961,11 @@
       <c r="G15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -963,7 +985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -983,7 +1005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1033,8 +1055,11 @@
       <c r="G20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1053,8 +1078,11 @@
       <c r="G21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1082,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C97794-5515-DF4A-A116-1E56A2431733}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1186,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065BC06-E847-EC49-ADC1-ECE188ADDE4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MultisysBOM_Options.xlsx
+++ b/MultisysBOM_Options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Documents/GitHub/track_configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D2E26-4BC2-A940-AC86-98379CC11671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F13209-D062-9446-94D4-12BC42A6851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Type</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Isolation</t>
+  </si>
+  <si>
+    <t>Mid-run</t>
+  </si>
+  <si>
+    <t>Feed</t>
   </si>
 </sst>
 </file>
@@ -681,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DE009-48E9-DC46-84A9-3CD49F909332}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,6 +888,15 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1100,6 +1115,26 @@
       </c>
       <c r="G22" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/MultisysBOM_Options.xlsx
+++ b/MultisysBOM_Options.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Documents/GitHub/track_configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F13209-D062-9446-94D4-12BC42A6851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA13D7-07F6-A742-8E9D-409BD32B2F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
+    <workbookView xWindow="33740" yWindow="660" windowWidth="34180" windowHeight="28000" activeTab="1" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MountingHardware" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Items" sheetId="4" r:id="rId2"/>
+    <sheet name="MountingHardware" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Items!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="214">
   <si>
     <t>Type</t>
   </si>
@@ -79,9 +82,6 @@
     <t>Isolated Coupler</t>
   </si>
   <si>
-    <t>L Feed</t>
-  </si>
-  <si>
     <t>L Connector</t>
   </si>
   <si>
@@ -157,9 +157,6 @@
     <t>9518-S-K/*-E</t>
   </si>
   <si>
-    <t>TestBit05</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
@@ -217,12 +214,6 @@
     <t>Imperial 8ft</t>
   </si>
   <si>
-    <t>Black Suffix</t>
-  </si>
-  <si>
-    <t>White Suffix</t>
-  </si>
-  <si>
     <t>ST6-9504-**</t>
   </si>
   <si>
@@ -302,6 +293,396 @@
   </si>
   <si>
     <t>Feed</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>ST3-9500-1M-BK</t>
+  </si>
+  <si>
+    <t>ST3-9500-1M-TW</t>
+  </si>
+  <si>
+    <t>ST3-9500-2M-BK</t>
+  </si>
+  <si>
+    <t>ST3-9500-2M-TW</t>
+  </si>
+  <si>
+    <t>ST6-9500-1M-BK</t>
+  </si>
+  <si>
+    <t>ST6-9500-1M-TW</t>
+  </si>
+  <si>
+    <t>ST6-9500-2M-BK</t>
+  </si>
+  <si>
+    <t>ST6-9500-2M-TW</t>
+  </si>
+  <si>
+    <t>ST1-9500-1M-BK</t>
+  </si>
+  <si>
+    <t>ST1-9500-1M-TW</t>
+  </si>
+  <si>
+    <t>ST1-9500-2M-BK</t>
+  </si>
+  <si>
+    <t>ST1-9500-2M-TW</t>
+  </si>
+  <si>
+    <t>ST-9518-E-BK</t>
+  </si>
+  <si>
+    <t>ST-9518-E-TW</t>
+  </si>
+  <si>
+    <t>ST-9501-BK</t>
+  </si>
+  <si>
+    <t>ST-9501-TW</t>
+  </si>
+  <si>
+    <t>9503-S/B-M-E</t>
+  </si>
+  <si>
+    <t>9503-S/W-M-E</t>
+  </si>
+  <si>
+    <t>ST8-9500-1M-BK</t>
+  </si>
+  <si>
+    <t>ST8-9500-1M-TW</t>
+  </si>
+  <si>
+    <t>ST8-9500-2M-BK</t>
+  </si>
+  <si>
+    <t>ST8-9500-2M-TW</t>
+  </si>
+  <si>
+    <t>Recessed Track 1m</t>
+  </si>
+  <si>
+    <t>Recessed Track 2m</t>
+  </si>
+  <si>
+    <t>Recessed Trimless Track 1m</t>
+  </si>
+  <si>
+    <t>Recessed Trimless Track 2m</t>
+  </si>
+  <si>
+    <t>Suspended Track 1m</t>
+  </si>
+  <si>
+    <t>Suspended Track 2m</t>
+  </si>
+  <si>
+    <t>Surface Track 1m</t>
+  </si>
+  <si>
+    <t>Surface track 2m</t>
+  </si>
+  <si>
+    <t>End Feed NP</t>
+  </si>
+  <si>
+    <t>L Feed NP</t>
+  </si>
+  <si>
+    <t>ST-9511-BK</t>
+  </si>
+  <si>
+    <t>ST-9511-TW</t>
+  </si>
+  <si>
+    <t>ST-9503-BK</t>
+  </si>
+  <si>
+    <t>ST-9503-TW</t>
+  </si>
+  <si>
+    <t>End Feed LH</t>
+  </si>
+  <si>
+    <t>End Feed RH</t>
+  </si>
+  <si>
+    <t>9501-S-KL/B-E</t>
+  </si>
+  <si>
+    <t>9501-S-KL/W-E</t>
+  </si>
+  <si>
+    <t>9501-S-KR/B-E</t>
+  </si>
+  <si>
+    <t>9501-S-KR/W-E</t>
+  </si>
+  <si>
+    <t>ST-9511-KI-BK</t>
+  </si>
+  <si>
+    <t>ST-9511-KI-TW</t>
+  </si>
+  <si>
+    <t>ST-9511-KE-BK</t>
+  </si>
+  <si>
+    <t>ST-9511-KE-TW</t>
+  </si>
+  <si>
+    <t>Internal L Feed</t>
+  </si>
+  <si>
+    <t>External L Feed</t>
+  </si>
+  <si>
+    <t>9503-S-K/B-E</t>
+  </si>
+  <si>
+    <t>9503-S-K/W-E</t>
+  </si>
+  <si>
+    <t>Straight Coupler PO</t>
+  </si>
+  <si>
+    <t>Straight Coupler NP</t>
+  </si>
+  <si>
+    <t>Isolated Coupler PO</t>
+  </si>
+  <si>
+    <t>Adjustable Connector PO</t>
+  </si>
+  <si>
+    <t>9518-S-K/B-E</t>
+  </si>
+  <si>
+    <t>9518-S-K/W-E</t>
+  </si>
+  <si>
+    <t>Recessed mounting clamp</t>
+  </si>
+  <si>
+    <t>ST8-9504-BK</t>
+  </si>
+  <si>
+    <t>ST8-9504-TW</t>
+  </si>
+  <si>
+    <t>ST-CS-9500-BK-3000</t>
+  </si>
+  <si>
+    <t>ST-CS-9500-TW-3000</t>
+  </si>
+  <si>
+    <t>Cover strip</t>
+  </si>
+  <si>
+    <t>Recessed reinforced bracket</t>
+  </si>
+  <si>
+    <t>Recessed End Cap</t>
+  </si>
+  <si>
+    <t>ST3-9500-314</t>
+  </si>
+  <si>
+    <t>Recessed trimless reinforced bracket</t>
+  </si>
+  <si>
+    <t>Recessed trimless end cap</t>
+  </si>
+  <si>
+    <t>ST3-9504-BK</t>
+  </si>
+  <si>
+    <t>ST3-9504-TW</t>
+  </si>
+  <si>
+    <t>Suspended End Cap</t>
+  </si>
+  <si>
+    <t>ST6-9504-BK</t>
+  </si>
+  <si>
+    <t>ST6-9504-TW</t>
+  </si>
+  <si>
+    <t>Suspended End Cap with wire hole</t>
+  </si>
+  <si>
+    <t>ST6-9504-F-BK</t>
+  </si>
+  <si>
+    <t>ST6-9504-F-TW</t>
+  </si>
+  <si>
+    <t>Suspended reinforced bracket</t>
+  </si>
+  <si>
+    <t>Suspension Kit</t>
+  </si>
+  <si>
+    <t>ST6-9511-BK</t>
+  </si>
+  <si>
+    <t>ST6-9511-TW</t>
+  </si>
+  <si>
+    <t>Reinforced Corner</t>
+  </si>
+  <si>
+    <t>ST1-9504-BK</t>
+  </si>
+  <si>
+    <t>ST1-9504-TW</t>
+  </si>
+  <si>
+    <t>ST1-9504-F-BK</t>
+  </si>
+  <si>
+    <t>ST1-9504-F-TW</t>
+  </si>
+  <si>
+    <t>Surface End Cap</t>
+  </si>
+  <si>
+    <t>Surface End Cap with wire hole</t>
+  </si>
+  <si>
+    <t>ST-9518-E-**</t>
+  </si>
+  <si>
+    <t>ST-9501-**</t>
+  </si>
+  <si>
+    <t>ST-9511-**</t>
+  </si>
+  <si>
+    <t>ST-9503-**</t>
+  </si>
+  <si>
+    <t>ST-9511-KE-**</t>
+  </si>
+  <si>
+    <t>ST8-9504-**</t>
+  </si>
+  <si>
+    <t>ST3-9504-**</t>
+  </si>
+  <si>
+    <t>9501-S-KR/*-E</t>
+  </si>
+  <si>
+    <t>ST6-9504-**|9501-S-KL/*-E</t>
+  </si>
+  <si>
+    <t>ST6-9504-F-**|9501-S-KL/*-E</t>
+  </si>
+  <si>
+    <t>ST8-9504-**|9501-S-KL/*-E</t>
+  </si>
+  <si>
+    <t>ST3-9504-**|9501-S-KL/*-E</t>
+  </si>
+  <si>
+    <t>ST3-9500-314|9503-S-K/*-E</t>
+  </si>
+  <si>
+    <t>ST3-9500-314|9503-S/*-M-E</t>
+  </si>
+  <si>
+    <t>ST3-9504-**|ST3-9504-**</t>
+  </si>
+  <si>
+    <t>ST8-9504-**|ST8-9504-**</t>
+  </si>
+  <si>
+    <t>ST-9511-KI-**|ST6-9511-**</t>
+  </si>
+  <si>
+    <t>Surface track 8'</t>
+  </si>
+  <si>
+    <t>Surface track 4'</t>
+  </si>
+  <si>
+    <t>Recessed track 4'</t>
+  </si>
+  <si>
+    <t>Recessed track 8'</t>
+  </si>
+  <si>
+    <t>Recessed trimless track 8'</t>
+  </si>
+  <si>
+    <t>Recessed trimless track 4'</t>
+  </si>
+  <si>
+    <t>Suspended track 4'</t>
+  </si>
+  <si>
+    <t>Suspended track 8'</t>
+  </si>
+  <si>
+    <t>ST1-9500-4FT-BK</t>
+  </si>
+  <si>
+    <t>ST1-9500-8FT-BK</t>
+  </si>
+  <si>
+    <t>ST8-9500-4FT-BK</t>
+  </si>
+  <si>
+    <t>ST8-9500-8FT-BK</t>
+  </si>
+  <si>
+    <t>ST3-9500-4FT-BK</t>
+  </si>
+  <si>
+    <t>ST3-9500-8FT-BK</t>
+  </si>
+  <si>
+    <t>ST6-9500-4FT-BK</t>
+  </si>
+  <si>
+    <t>ST6-9500-8FT-BK</t>
+  </si>
+  <si>
+    <t>ST1-9500-4FT-TW</t>
+  </si>
+  <si>
+    <t>ST1-9500-8FT-TW</t>
+  </si>
+  <si>
+    <t>ST8-9500-4FT-TW</t>
+  </si>
+  <si>
+    <t>ST8-9500-8FT-TW</t>
+  </si>
+  <si>
+    <t>ST3-9500-4FT-TW</t>
+  </si>
+  <si>
+    <t>ST3-9500-8FT-TW</t>
+  </si>
+  <si>
+    <t>ST6-9500-4FT-TW</t>
+  </si>
+  <si>
+    <t>ST6-9500-8FT-TW</t>
   </si>
 </sst>
 </file>
@@ -687,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DE009-48E9-DC46-84A9-3CD49F909332}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,13 +1079,10 @@
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -712,123 +1090,117 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -836,13 +1208,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -850,13 +1228,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -864,10 +1248,19 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -875,30 +1268,39 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -906,21 +1308,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
       <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -928,16 +1336,22 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -945,19 +1359,19 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -965,176 +1379,156 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1144,101 +1538,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C97794-5515-DF4A-A116-1E56A2431733}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DDFC84-1D2E-004F-96F1-F71A4F281D3A}">
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>83</v>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{F9DDFC84-1D2E-004F-96F1-F71A4F281D3A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
+      <sortCondition descending="1" ref="A1:A29"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065BC06-E847-EC49-ADC1-ECE188ADDE4A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C97794-5515-DF4A-A116-1E56A2431733}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MultisysBOM_Options.xlsx
+++ b/MultisysBOM_Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermcclelland/Documents/GitHub/track_configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA13D7-07F6-A742-8E9D-409BD32B2F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94BE7E-18B4-4540-9EF5-EBADA8267A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33740" yWindow="660" windowWidth="34180" windowHeight="28000" activeTab="1" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19560" activeTab="2" xr2:uid="{984AE996-C24A-134E-92AC-58AF8C1B965D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Items!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="215">
   <si>
     <t>Type</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Recessed Trimless</t>
   </si>
   <si>
-    <t>RTL Bracke</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -683,6 +680,12 @@
   </si>
   <si>
     <t>ST6-9500-8FT-TW</t>
+  </si>
+  <si>
+    <t>Recessed Trimless Mounting Bracket</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -1105,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1116,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1139,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1156,48 +1159,48 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1211,13 +1214,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
         <v>178</v>
       </c>
-      <c r="F6" t="s">
-        <v>179</v>
-      </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1231,13 +1234,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
         <v>178</v>
       </c>
-      <c r="F7" t="s">
-        <v>179</v>
-      </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1251,13 +1254,13 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
         <v>183</v>
       </c>
-      <c r="F8" t="s">
-        <v>184</v>
-      </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1271,33 +1274,33 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" t="s">
         <v>183</v>
       </c>
-      <c r="F9" t="s">
-        <v>184</v>
-      </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,16 +1319,16 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1339,16 +1342,16 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1362,13 +1365,13 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1382,16 +1385,16 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1419,19 +1422,19 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1439,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -1451,7 +1454,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1459,13 +1462,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1473,62 +1476,62 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DDFC84-1D2E-004F-96F1-F71A4F281D3A}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -1555,16 +1558,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1572,13 +1575,13 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1586,13 +1589,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1600,13 +1603,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1614,13 +1617,13 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1628,13 +1631,13 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1642,13 +1645,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
         <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1656,13 +1659,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
         <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1670,41 +1673,41 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
         <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
         <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1715,94 +1718,94 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
         <v>118</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
         <v>125</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
         <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
         <v>129</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
         <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,13 +1813,13 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
         <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1824,13 +1827,13 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
         <v>103</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1838,167 +1841,167 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
         <v>140</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>141</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
         <v>146</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
         <v>151</v>
       </c>
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
         <v>153</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>154</v>
-      </c>
-      <c r="D27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
         <v>156</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>157</v>
-      </c>
-      <c r="D28" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
         <v>159</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>160</v>
-      </c>
-      <c r="D29" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
         <v>164</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2006,13 +2009,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
         <v>167</v>
-      </c>
-      <c r="D33" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2020,125 +2023,125 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
         <v>169</v>
-      </c>
-      <c r="D34" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2153,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C97794-5515-DF4A-A116-1E56A2431733}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2169,7 @@
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2180,35 +2183,41 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1">
         <v>0.45</v>
@@ -2216,27 +2225,33 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D4" s="1">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
